--- a/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C43C24-C894-438F-9688-8DC2A48241DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB1637-51D8-4ECC-8780-D39E74E9C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32535" yWindow="3780" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>array,(list#sep=;),int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,7 +79,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ScriptKey</t>
+    <t>AddAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Spellkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,SpellKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞镖2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AddAttrArg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalBullet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Arg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=1;Exp=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,(map#sep==;),EnAttr,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAtk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +167,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,10 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,12 +494,13 @@
     <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,13 +514,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -470,27 +539,98 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB1637-51D8-4ECC-8780-D39E74E9C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEB766-AA74-45FB-B428-7347E4459C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="3780" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Atk=1;Exp=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>array,(map#sep==;),EnAttr,int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,6 +124,30 @@
   </si>
   <si>
     <t>EnemyAtk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这列不能空缺！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAdd=1;Exp=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAdd=2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAdd=1;AtkPct=5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +194,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,13 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -559,6 +589,9 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -574,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -602,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -621,7 +654,7 @@
         <v>1003</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -629,8 +662,33 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C_GAME\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEB766-AA74-45FB-B428-7347E4459C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D385745-BECD-4E8D-9A34-DE384E22ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>AtkAdd=1;AtkPct=5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000;0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,8 +677,8 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2">
-        <v>10000</v>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C_GAME\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D385745-BECD-4E8D-9A34-DE384E22ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FAABF-DC9C-43B8-8D6A-11F356B0C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10000;0</t>
+    <t>10000;2000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,6 +694,9 @@
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
